--- a/Examples/somaticGermline_TCRBOA6/somaticMutations.xlsx
+++ b/Examples/somaticGermline_TCRBOA6/somaticMutations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">Gene.refGene</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">gnomAD_exome_NFE</t>
   </si>
   <si>
-    <t xml:space="preserve">CADD13_PHRED</t>
+    <t xml:space="preserve">CADD_phred</t>
   </si>
   <si>
     <t xml:space="preserve">condel.label</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">CLINSIG.SnpEff</t>
   </si>
   <si>
-    <t xml:space="preserve">cosmic84_coding</t>
+    <t xml:space="preserve">cosmic86_coding</t>
   </si>
   <si>
     <t xml:space="preserve">PLEKHM2</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">p.Pro839Ser</t>
   </si>
   <si>
-    <t xml:space="preserve">38.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|152</t>
+    <t xml:space="preserve">39.22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60|153</t>
   </si>
   <si>
     <t xml:space="preserve">ID=COSM2989103;OCCURENCE=2(large_intestine)</t>
@@ -227,21 +227,6 @@
     <t xml:space="preserve">43|132</t>
   </si>
   <si>
-    <t xml:space="preserve">LCP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphocyte cytosolic protein 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ala143Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96|283</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATP6V0A4</t>
   </si>
   <si>
@@ -281,24 +266,6 @@
     <t xml:space="preserve">9|32</t>
   </si>
   <si>
-    <t xml:space="preserve">MUC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mucin 2, oligomeric mucus/gel-forming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Ser1698Thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8|51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID=COSM4184070,COSM4184071;OCCURENCE=1(bone),2(liver),1(thyroid),1(large_intestine)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZC3H10</t>
   </si>
   <si>
@@ -329,6 +296,21 @@
     <t xml:space="preserve">38|143</t>
   </si>
   <si>
+    <t xml:space="preserve">CD177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD177 molecule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.Val240Met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68|202</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMC2</t>
   </si>
   <si>
@@ -374,10 +356,10 @@
     <t xml:space="preserve"> p.His125fs</t>
   </si>
   <si>
-    <t xml:space="preserve">51.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52|101</t>
+    <t xml:space="preserve">50.98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52|102</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -396,27 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">62|112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRTAP9-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keratin associated protein 9-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nonframeshift deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> p.Thr152_Cys153delinsSer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10|75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID=COSM1134046,COSM436567;OCCURENCE=2(breast),2(skin),6(thyroid),1(upper_aerodigestive_tract)</t>
   </si>
   <si>
     <t xml:space="preserve">CEACAM8</t>
@@ -1269,11 +1230,9 @@
       <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.0001</v>
-      </c>
+      <c r="L11"/>
       <c r="M11" t="n">
-        <v>23</v>
+        <v>1.999</v>
       </c>
       <c r="N11" t="s">
         <v>33</v>
@@ -1319,7 +1278,7 @@
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>1.999</v>
+        <v>0.001</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
@@ -1331,25 +1290,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1365,7 +1324,7 @@
       </c>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.001</v>
+        <v>6.906</v>
       </c>
       <c r="N13" t="s">
         <v>33</v>
@@ -1377,10 +1336,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1411,7 +1370,7 @@
       </c>
       <c r="L14"/>
       <c r="M14" t="n">
-        <v>6.906</v>
+        <v>9.774</v>
       </c>
       <c r="N14" t="s">
         <v>33</v>
@@ -1457,7 +1416,7 @@
       </c>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.646</v>
+        <v>23.7</v>
       </c>
       <c r="N15" t="s">
         <v>33</v>
@@ -1465,31 +1424,29 @@
       <c r="O15" t="s">
         <v>25</v>
       </c>
-      <c r="P15" t="s">
-        <v>94</v>
-      </c>
+      <c r="P15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1505,11 +1462,9 @@
       </c>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>9.774</v>
-      </c>
-      <c r="N16" t="s">
-        <v>33</v>
-      </c>
+        <v>3.844</v>
+      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
         <v>25</v>
       </c>
@@ -1517,13 +1472,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -1551,11 +1506,9 @@
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
         <v>25</v>
       </c>
@@ -1569,19 +1522,19 @@
         <v>106</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1597,9 +1550,11 @@
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>37</v>
-      </c>
-      <c r="N18"/>
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
       <c r="O18" t="s">
         <v>25</v>
       </c>
@@ -1607,13 +1562,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>113</v>
@@ -1628,7 +1583,7 @@
         <v>115</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1637,15 +1592,11 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="L19"/>
-      <c r="M19" t="n">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19" t="s">
         <v>25</v>
       </c>
@@ -1653,16 +1604,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
         <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>120</v>
@@ -1683,40 +1634,40 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="P20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>125</v>
       </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
         <v>126</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1725,103 +1676,15 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="P21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
